--- a/data/air_info/首尔-上海.xlsx
+++ b/data/air_info/首尔-上海.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A64020-53FA-4BE0-9201-8C14F2F56508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6EA84-B38A-49DF-AAF5-3D3DF73D0A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,30 +33,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
-    <t>行程时间：2 小时 15 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A330MU 5052</t>
   </si>
   <si>
-    <t>行程时间：2 小时 5 分钟</t>
-  </si>
-  <si>
     <t>韩亚经济舱Airbus A330OZ 361</t>
   </si>
   <si>
     <t>大韩航空经济舱Airbus A330KE 897</t>
   </si>
   <si>
-    <t>行程时间：2 小时</t>
-  </si>
-  <si>
     <t>上航经济舱FM 512</t>
   </si>
   <si>
-    <t>行程时间：2 小时 10 分钟</t>
-  </si>
-  <si>
     <t>南航经济舱Airbus A321CZ 314</t>
   </si>
   <si>
@@ -78,18 +66,12 @@
     <t>春航经济舱Airbus A3209C 8560</t>
   </si>
   <si>
-    <t>行程时间：2 小时 40 分钟</t>
-  </si>
-  <si>
     <t>上航经济舱Boeing 737FM 828</t>
   </si>
   <si>
     <t>大韩航空经济舱Boeing 737KE 895</t>
   </si>
   <si>
-    <t>行程时间：1 小时 55 分钟</t>
-  </si>
-  <si>
     <t>韩亚经济舱Airbus A321neoOZ 367</t>
   </si>
   <si>
@@ -99,9 +81,6 @@
     <t>南航经济舱Airbus A321CZ 370</t>
   </si>
   <si>
-    <t>行程时间：1 小时 50 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A320MU 5012</t>
   </si>
   <si>
@@ -136,7 +115,27 @@
   </si>
   <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 5 分钟</t>
+  </si>
+  <si>
+    <t>2 小时</t>
+  </si>
+  <si>
+    <t>2 小时 10 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 40 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 55 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 50 分钟</t>
   </si>
 </sst>
 </file>
@@ -492,7 +491,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -503,31 +502,30 @@
     <col min="4" max="4" width="24.6328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="51.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -535,23 +533,22 @@
         <v>0.37152777777777779</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>0.4236111111111111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(600,1500)</f>
-        <v>1075</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,23 +556,22 @@
         <v>0.375</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>0.4201388888888889</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G18" ca="1" si="0">RANDBETWEEN(600,1500)</f>
-        <v>1126</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -583,23 +579,22 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>0.51736111111111116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1312</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -607,23 +602,22 @@
         <v>0.5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1190</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -631,23 +625,22 @@
         <v>0.53125</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>0.57986111111111116</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1368</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,23 +648,22 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>0.59027777777777779</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1492</v>
+        <v>894</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -679,23 +671,22 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>0.59027777777777779</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1357</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -703,23 +694,22 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>0.70833333333333337</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>695</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -727,23 +717,22 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>0.71180555555555558</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1470</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -751,23 +740,22 @@
         <v>0.68055555555555558</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>0.72916666666666663</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1126</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -775,23 +763,22 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>0.75694444444444442</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>638</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,23 +786,22 @@
         <v>0.76736111111111116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>0.83680555555555558</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>815</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -823,23 +809,22 @@
         <v>0.78819444444444442</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>0.84027777777777779</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1240</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -847,23 +832,22 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>0.87152777777777779</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>724</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -871,23 +855,22 @@
         <v>0.86805555555555558</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>0.91319444444444442</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1141</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -895,23 +878,22 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>0.94444444444444442</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1142</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -919,23 +901,22 @@
         <v>0.89930555555555558</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>0.93402777777777779</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1479</v>
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
